--- a/report_1/data/indicators_dictionary.xlsx
+++ b/report_1/data/indicators_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tequilamambo/Documents/GitHub/PPI4SD_URY/report_1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B316856-4B0F-6F49-B471-691B5E0F3331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D30439-1250-8141-92DF-6ED097C0A6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="2400" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{26549F23-2CC6-4644-915B-A7983C13A9A0}"/>
+    <workbookView xWindow="9460" yWindow="2400" windowWidth="27640" windowHeight="16940" xr2:uid="{26549F23-2CC6-4644-915B-A7983C13A9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
-  <si>
-    <t>countryCode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>goal</t>
   </si>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>value of the observation in the year 2016</t>
-  </si>
-  <si>
-    <t>ISO-3 code of the country</t>
   </si>
   <si>
     <t>indicator of an indicator being instrumental (1=yes)</t>
@@ -620,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03125955-D11B-B440-AAAF-C0613EA8AB58}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -645,7 +639,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -653,7 +647,7 @@
         <v>2007</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -661,7 +655,7 @@
         <v>2008</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -669,7 +663,7 @@
         <v>2009</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -677,7 +671,7 @@
         <v>2010</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -685,7 +679,7 @@
         <v>2011</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -693,7 +687,7 @@
         <v>2012</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -701,7 +695,7 @@
         <v>2013</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -709,7 +703,7 @@
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -717,7 +711,7 @@
         <v>2015</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -725,7 +719,7 @@
         <v>2016</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -733,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -741,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -749,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -757,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -765,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -781,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -797,7 +791,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -813,7 +807,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,15 +823,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25997AFD-02CB-124D-9B32-2721A57FCDDD}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -861,123 +847,123 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
